--- a/go/output/tags.xlsx
+++ b/go/output/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>親タスク</t>
   </si>
@@ -67,7 +67,8 @@
 &lt;pre&gt;そのまま表示&lt;/pre&gt;</t>
   </si>
   <si>
-    <t>機能開発Bの進捗二つ目です</t>
+    <t>1. 機能開発Bの進捗です
+2. 機能開発Bの進捗二つ目です</t>
   </si>
   <si>
     <t>機能開発A【進捗なし】</t>
@@ -82,10 +83,8 @@
     <t>機能開発Aのバグです</t>
   </si>
   <si>
-    <t>バグが発生しましたの進捗です</t>
-  </si>
-  <si>
-    <t>課題は以下の通りです</t>
+    <t>1. 進捗です。
+2. バグが発生しましたの進捗です</t>
   </si>
   <si>
     <t>バグが発生しました2</t>
@@ -520,7 +519,7 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -528,7 +527,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -543,13 +542,13 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/go/output/tags.xlsx
+++ b/go/output/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>親タスク</t>
   </si>
@@ -37,12 +37,6 @@
     <t>要約</t>
   </si>
   <si>
-    <t>進捗</t>
-  </si>
-  <si>
-    <t>課題</t>
-  </si>
-  <si>
     <t>機能開発B</t>
   </si>
   <si>
@@ -61,14 +55,7 @@
     <t>Redmine Admin</t>
   </si>
   <si>
-    <t>機能開発Bの要約です。
-改行ははどうなるでしょうか。
-\nはどうなりますか
-&lt;pre&gt;そのまま表示&lt;/pre&gt;</t>
-  </si>
-  <si>
-    <t>1. 機能開発Bの進捗です
-2. 機能開発Bの進捗二つ目です</t>
+    <t>機能開発Bの説明の要約です。</t>
   </si>
   <si>
     <t>機能開発A【進捗なし】</t>
@@ -77,26 +64,37 @@
     <t>バグが発生しました</t>
   </si>
   <si>
+    <t>2025/12/29</t>
+  </si>
+  <si>
+    <t>機能開発Aのバグです</t>
+  </si>
+  <si>
+    <t>バグが発生しました2</t>
+  </si>
+  <si>
     <t>----/--/--</t>
   </si>
   <si>
-    <t>機能開発Aのバグです</t>
-  </si>
-  <si>
-    <t>1. 進捗です。
-2. バグが発生しましたの進捗です</t>
-  </si>
-  <si>
-    <t>バグが発生しました2</t>
-  </si>
-  <si>
     <t>機能開発Aのバグです2</t>
   </si>
   <si>
-    <t>バグが発生しました2の進捗です</t>
-  </si>
-  <si>
-    <t>バグが発生しました2の課題はこれです</t>
+    <t>バグ333が発生しました</t>
+  </si>
+  <si>
+    <t>太郎 テスト</t>
+  </si>
+  <si>
+    <t>バグ333が発生しました説明の要約です</t>
+  </si>
+  <si>
+    <t>機能開発テスト2</t>
+  </si>
+  <si>
+    <t>要約です</t>
+  </si>
+  <si>
+    <t>機能開発テスト1</t>
   </si>
 </sst>
 </file>
@@ -151,9 +149,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RedmineIssues" displayName="RedmineIssues" ref="A1:I4">
-  <autoFilter ref="A1:I4"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RedmineIssues" displayName="RedmineIssues" ref="A1:G7">
+  <autoFilter ref="A1:G7"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="親タスク"/>
     <tableColumn id="2" name="タスク名"/>
     <tableColumn id="3" name="ステータス"/>
@@ -161,8 +159,6 @@
     <tableColumn id="5" name="終了日"/>
     <tableColumn id="6" name="担当者"/>
     <tableColumn id="7" name="要約"/>
-    <tableColumn id="8" name="進捗"/>
-    <tableColumn id="9" name="課題"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
@@ -432,7 +428,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" max="9" min="1" width="15"/>
+    <col customWidth="true" max="7" min="1" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -457,97 +453,142 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>25</v>
       </c>
     </row>

--- a/go/output/tags.xlsx
+++ b/go/output/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>親タスク</t>
   </si>
@@ -58,7 +58,7 @@
     <t>機能開発Bの説明の要約です。</t>
   </si>
   <si>
-    <t>機能開発A【進捗なし】</t>
+    <t>機能開発A</t>
   </si>
   <si>
     <t>バグが発生しました</t>
@@ -86,6 +86,72 @@
   </si>
   <si>
     <t>バグ333が発生しました説明の要約です</t>
+  </si>
+  <si>
+    <t>先週金曜日のチケット</t>
+  </si>
+  <si>
+    <t>2025/12/26</t>
+  </si>
+  <si>
+    <t>2025/12/27</t>
+  </si>
+  <si>
+    <t>先週金曜日のチケット説明の要約です</t>
+  </si>
+  <si>
+    <t>先週木曜日のチケット</t>
+  </si>
+  <si>
+    <t>2025/12/25</t>
+  </si>
+  <si>
+    <t>先週木曜日のチケット説明の要約です</t>
+  </si>
+  <si>
+    <t>先週土曜日のチケット</t>
+  </si>
+  <si>
+    <t>2025/12/20</t>
+  </si>
+  <si>
+    <t>2025/12/21</t>
+  </si>
+  <si>
+    <t>先週土曜日のチケット説明の要約です</t>
+  </si>
+  <si>
+    <t>先週日曜日のチケット</t>
+  </si>
+  <si>
+    <t>2025/12/22</t>
+  </si>
+  <si>
+    <t>先週日曜日のチケット説明の要約です</t>
+  </si>
+  <si>
+    <t>先週水曜日のチケット</t>
+  </si>
+  <si>
+    <t>2025/12/24</t>
+  </si>
+  <si>
+    <t>先週水曜日のチケット説明の要約です</t>
+  </si>
+  <si>
+    <t>先週火曜日のチケット</t>
+  </si>
+  <si>
+    <t>2025/12/23</t>
+  </si>
+  <si>
+    <t>先週火曜日のチケット説明の要約です</t>
+  </si>
+  <si>
+    <t>先週月曜日のチケット</t>
+  </si>
+  <si>
+    <t>先週月曜日のチケット説明の要約です</t>
   </si>
   <si>
     <t>機能開発テスト2</t>
@@ -149,8 +215,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RedmineIssues" displayName="RedmineIssues" ref="A1:G7">
-  <autoFilter ref="A1:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RedmineIssues" displayName="RedmineIssues" ref="A1:G15">
+  <autoFilter ref="A1:G15"/>
   <tableColumns count="7">
     <tableColumn id="1" name="親タスク"/>
     <tableColumn id="2" name="タスク名"/>
@@ -557,21 +623,21 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -580,16 +646,200 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
